--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LPF007\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B8827D-FDC1-4E7F-9124-A376E30EA2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051EF239-8E08-481D-AF72-737C277CF724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3D3FF635-E2EA-4CC0-8AF7-93D2302D87C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D3FF635-E2EA-4CC0-8AF7-93D2302D87C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>なぜ転職を希望しましたか？転職しようと思ったきっかけは何でしたか？</t>
     <phoneticPr fontId="1"/>
@@ -68,10 +69,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仕事で褒められると嬉しい点はなんですか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>仕事をする上で大切にしていることや心がけていることはありますか？</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -229,6 +226,642 @@
   </si>
   <si>
     <t>お付き合いされている方はいますか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>thay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> đổi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a đi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m làm vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>, được làm phần giao tiếp với khách hàng, làm phần thiết kế, học được nhiều kỹ thuật mới,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> nhân viên chính thức -&gt; ảnh hưởng đến việc xin visa v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ĩ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> trú</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1, M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ô</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i trường l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>m việc, c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ấp tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>n c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ó</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> tốt hay kh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ô</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ng, 
+2, Nội dung c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ô</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ng việc như thế n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>o ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>, Tiền lương, c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ó</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>â</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>n vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>n ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>í</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">nh thức hay ko -&gt; ảnh hưởng đến xin visa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>, C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ó</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>á</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>c hỗ trợ trong c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ô</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ng việc kh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ô</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ng, v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>í</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> dụ l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">m remote </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Có</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> hiện tại tôi đang cũng đang tham gia phỏng vấn một vài công ty khác, xin lỗi nhưng tôi xin không tiết lộ kết quả cũng như tiến trình phỏng vấn của bản thân</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>仕事で褒められると嬉しい点はなんですか？(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仕事のやりがい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.s-agent.jp/column/13542</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,có ích đối với người khác 
+2,Cảm giác đạt được thành tích tốt, cảm giác mình đang phát triển 
+https://www.s-agent.jp/column/13542
+https://www.s-agent.jp/column/13806</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -236,7 +869,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +893,70 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -278,12 +975,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,8 +993,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -609,259 +1316,274 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2BB005-5DB9-4319-B25E-859C52C2C346}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="97.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="73.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="97.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" ht="33.75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="33.75" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -869,4 +1591,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29423457-9B2E-40DC-98AC-005D34D3D3B1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{C36BC245-0B05-4489-9509-50995F81CD28}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LPF007\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051EF239-8E08-481D-AF72-737C277CF724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628739B6-29A7-4B98-80E8-A6C7833E5806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D3FF635-E2EA-4CC0-8AF7-93D2302D87C2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3D3FF635-E2EA-4CC0-8AF7-93D2302D87C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>なぜ転職を希望しましたか？転職しようと思ったきっかけは何でしたか？</t>
     <phoneticPr fontId="1"/>
@@ -819,10 +820,6 @@
       </rPr>
       <t xml:space="preserve"> hiện tại tôi đang cũng đang tham gia phỏng vấn một vài công ty khác, xin lỗi nhưng tôi xin không tiết lộ kết quả cũng như tiến trình phỏng vấn của bản thân</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1, </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -862,6 +859,83 @@
 2,Cảm giác đạt được thành tích tốt, cảm giác mình đang phát triển 
 https://www.s-agent.jp/column/13542
 https://www.s-agent.jp/column/13806</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tiep xuc voi khach hang, thiet ke, viet tai lieu, quan ly du an, hoc ky thuat moi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕事を進めるにあたって、コミュニケーションを大事にする人や効率を重視する人など、大事にするものは人それぞれです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duoc khen,cong viec dien ra suon se thi se co cam giac dat duoc thanh tuu. Tien, thuong</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toi chua gap nguoi khong ua bao gio. Neu ma gap thi co le toi se co gang giao tiep bang van ban, hoac bay to y kien 1 cach can than va chi tiet hon de tranh conflic khi lam viec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.theport.jp/portcareer/article/31918/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>het minh vi cong viec, khong ngai lam them gio, giao tiep, mong muon hoc cong nghe moi, dong luc -&gt; Ke ra vi du thuc te, lam them gio khi lam du an o VN, nhiet huyet, cam giac thanh cong khi minh hoan tot mot cong viec j do</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>talkative, lam luc noi hoi nhieu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>co hoi lam viec tai nhat, co hoc hoi phong cach lam viec,tieng nhat va sach dien tu cung thu vi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cong ty dau tien lam ve sach dien tu, phat trien phan mem cho cong ty </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cong ty thu 2 lam ve offshore, cho thue nhan vien Haken</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Noi dung cong viec tai 2 cong ty , da hoc hoi duoc gi o 2 cty va thich lam o cong ty nao hon </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://media.bizreach.biz/member_survey1/#:~:text=%E8%BB%A2%E8%81%B7%E8%BB%B8%E3%81%AF%E5%A4%A7%E3%81%8D%E3%81%8F%E3%80%81%E3%80%8C%E4%BA%BA,%E4%BB%98%E3%81%91%E3%81%AB%E3%82%82%E3%81%A4%E3%81%AA%E3%81%8C%E3%82%8A%E3%81%BE%E3%81%99%E3%80%82</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ourly.jp/joined-company_gap/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://one-group.jp/tenshoku/tenshoku-kikkake/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルアップがしたかったから
+　　　転職先ではスキルが評価され、プロジェクトリーダーなど責任ある仕事を任されることもあります。
+会社の将来に不安を覚えたから
+          給料や待遇の水準が良いというメリットもあります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1, Muon lam Brse
+【PREP法の構成】
+P=point（結論）
+R=reason（理由）
+E=example（具体例）
+P=point（結論）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://career-ch.com/column/3080
+https://career-ch.com/column/27916</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -983,7 +1057,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,6 +1072,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1314,27 +1394,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2BB005-5DB9-4319-B25E-859C52C2C346}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="97.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="73.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="97.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.58203125" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.4">
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1342,7 +1430,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="33.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="32.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1350,260 +1438,331 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="58" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B14" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{954BFE83-CEA3-4259-927E-0604061A5DC4}"/>
+    <hyperlink ref="B21" r:id="rId2" location=":~:text=%E8%BB%A2%E8%81%B7%E8%BB%B8%E3%81%AF%E5%A4%A7%E3%81%8D%E3%81%8F%E3%80%81%E3%80%8C%E4%BA%BA,%E4%BB%98%E3%81%91%E3%81%AB%E3%82%82%E3%81%A4%E3%81%AA%E3%81%8C%E3%82%8A%E3%81%BE%E3%81%99%E3%80%82" xr:uid="{D83317C3-191B-4A64-B335-A4048A4CF4A9}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{9CBC77CB-E066-4EE5-9077-B4C6E92B5864}"/>
+    <hyperlink ref="D1" r:id="rId4" xr:uid="{9A9D0116-C0C2-4481-B238-B23F5AE959BE}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://career-ch.com/column/3080" xr:uid="{967FD8EF-3D2F-4C0D-A80E-256C731439D9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7050AD0F-41B8-4B6E-A430-A8A49E38B8C6}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29423457-9B2E-40DC-98AC-005D34D3D3B1}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
